--- a/test_case.xlsx
+++ b/test_case.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Hegar\sqabatch23\Appium\SwaglabsMobile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FE297899-2A76-4078-939F-76628A131776}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{701B9ED9-C270-4C24-9B52-5947F48F1845}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="64">
   <si>
     <t>Nomor Test Case</t>
   </si>
@@ -131,9 +131,6 @@
   </si>
   <si>
     <t>Medium</t>
-  </si>
-  <si>
-    <t>Pending</t>
   </si>
   <si>
     <t>Verifikasi Produk</t>
@@ -205,12 +202,44 @@
 5. Sauce Labs Onesie.
 6. Test.allTheThings() T-Shirt (Red).</t>
   </si>
+  <si>
+    <t>Verifikasi fungsi sort produk</t>
+  </si>
+  <si>
+    <t>Memastikan produk ditampilkan berurutan dari harga terendah sampai harga terbesar</t>
+  </si>
+  <si>
+    <t>Pengguna berada di halaman product.</t>
+  </si>
+  <si>
+    <t>1. Klik tombol sort
+2. Pilih menu Price (low to high).</t>
+  </si>
+  <si>
+    <t>1. Pilih salah satu produk.
+2. Klik  tombol 'Add to cart' pada produk tersebut.</t>
+  </si>
+  <si>
+    <t>produk yang ditampilkan di beruutan dari harga terkecil sampai harga yang terbesar</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Positive</t>
+  </si>
+  <si>
+    <t>Negative</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -222,6 +251,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -577,27 +612,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J9"/>
+  <sheetPr>
+    <pageSetUpPr autoPageBreaks="0"/>
+  </sheetPr>
+  <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="B2" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="19.81640625" customWidth="1"/>
-    <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="3" max="3" width="56.6328125" customWidth="1"/>
-    <col min="4" max="4" width="48.1796875" customWidth="1"/>
-    <col min="5" max="5" width="63.26953125" customWidth="1"/>
-    <col min="6" max="6" width="35.7265625" customWidth="1"/>
-    <col min="7" max="7" width="74.81640625" customWidth="1"/>
-    <col min="8" max="8" width="57.54296875" customWidth="1"/>
-    <col min="9" max="9" width="15.08984375" customWidth="1"/>
-    <col min="10" max="10" width="12.6328125" customWidth="1"/>
+    <col min="2" max="3" width="29.7265625" customWidth="1"/>
+    <col min="4" max="4" width="74.7265625" customWidth="1"/>
+    <col min="5" max="5" width="48.1796875" customWidth="1"/>
+    <col min="6" max="6" width="63.26953125" customWidth="1"/>
+    <col min="7" max="7" width="35.7265625" customWidth="1"/>
+    <col min="8" max="8" width="74.81640625" customWidth="1"/>
+    <col min="9" max="9" width="57.54296875" customWidth="1"/>
+    <col min="10" max="10" width="15.08984375" customWidth="1"/>
+    <col min="11" max="11" width="12.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -605,31 +643,34 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -637,29 +678,34 @@
         <v>16</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H2" s="2"/>
       <c r="I2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>37</v>
+      <c r="K2" s="2" t="s">
+        <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -667,29 +713,34 @@
         <v>16</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>44</v>
+      <c r="F3" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="G3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="H3" s="2"/>
       <c r="I3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="J3" s="2" t="s">
-        <v>37</v>
+      <c r="K3" s="2" t="s">
+        <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -697,29 +748,34 @@
         <v>16</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>45</v>
+      <c r="F4" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="G4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="H4" s="2"/>
       <c r="I4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="J4" s="2" t="s">
-        <v>37</v>
+      <c r="K4" s="2" t="s">
+        <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
@@ -727,29 +783,34 @@
         <v>16</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="H5" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="H5" s="2"/>
       <c r="I5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J5" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="J5" s="2" t="s">
-        <v>37</v>
+      <c r="K5" s="2" t="s">
+        <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
@@ -757,119 +818,176 @@
         <v>16</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="H6" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="H6" s="2"/>
       <c r="I6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J6" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="J6" s="2" t="s">
-        <v>37</v>
+      <c r="K6" s="2" t="s">
+        <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="E7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H7" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G7" s="2" t="s">
+      <c r="I7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="29" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="D9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="F9" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G10" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2" t="s">
+      <c r="H10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J10" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="J9" s="2" t="s">
-        <v>37</v>
+      <c r="K10" s="2" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>